--- a/biology/Botanique/Tillandsia_sigmoidea/Tillandsia_sigmoidea.xlsx
+++ b/biology/Botanique/Tillandsia_sigmoidea/Tillandsia_sigmoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia sigmoidea L.B.Sm. est une plante de la famille des Bromeliaceae.
 L'épithète sigmoidea, signifiant « en forme de S », se réfère au profil des bractées de l'inflorescence.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia sigmoidea L.B.Sm., in Contr. U.S. Natl. Herb. 29: 440, fig. 44e-g (1951)
-Diagnose originale[1] :
+Diagnose originale :
 « A T. brevilingua Mez, cui aegre affinis, omnibus partibus multo majoribus, foliis acutis, scapi bracteis dense imbricatis, bracteis florigeris laevibus, margine prope apicem valde sigmoideo-curvatis, sepalis liberis differt. »
 Type :
-leg. M.B. &amp; R. Foster &amp; E. Smith, n°1461, 1946-08-19 ; « in the last line of trees on the mountain-side, Aduiameina, Sierra Nevada de Santa Marta; department of Magdalena, Colombia, altitude 3,060 meters »[1] ; Holotypus (1/2) GH (Gray Herbarium) (GH 29452)
+leg. M.B. &amp; R. Foster &amp; E. Smith, n°1461, 1946-08-19 ; « in the last line of trees on the mountain-side, Aduiameina, Sierra Nevada de Santa Marta; department of Magdalena, Colombia, altitude 3,060 meters » ; Holotypus (1/2) GH (Gray Herbarium) (GH 29452)
 leg. M.B. &amp; R. Foster &amp; E. Smith, n°1461, 1946-08-19 ; « in the last line of trees on the mountain-side, Aduiameina, Sierra Nevada de Santa Marta; department of Magdalena, Colombia, altitude 3,060 meters » ; Holotypus (2/2) GH (Gray Herbarium) (GH 29453)
 leg. M.B. &amp; R. Foster, n° 1461 ; « Colombia. Magdalena » ; Isotype US National Herbarium (US 00091102)</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,11 +622,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole[1],[2] ou épiphyte[2].
-Habitat : forêts[2].
-Altitude : 900 m[1] ; 180-3000 m[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole, ou épiphyte.
+Habitat : forêts.
+Altitude : 900 m ; 180-3000 m.</t>
         </is>
       </c>
     </row>
@@ -636,11 +656,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Colombie
-Magdalena[1]</t>
+Magdalena</t>
         </is>
       </c>
     </row>
@@ -669,6 +691,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
